--- a/EK002_Tables.xlsx
+++ b/EK002_Tables.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaito\Documents\GitHub\electro-kalimba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4898A0BC-3405-4929-AEE3-97D80C13E6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43654752-B308-4A85-BDF4-35758ED7591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31770" yWindow="1980" windowWidth="26010" windowHeight="18210" xr2:uid="{053318A6-6510-457E-AB25-9B5035E4A2D9}"/>
+    <workbookView xWindow="2775" yWindow="1740" windowWidth="26010" windowHeight="18210" xr2:uid="{053318A6-6510-457E-AB25-9B5035E4A2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3451,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513D052A-0638-4A4C-85B3-F9E6C2ACD6B6}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
